--- a/docs/TestCase.xlsx
+++ b/docs/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NB24217\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NB24217\Documents\GitHub\estagio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
   <si>
     <t>Test Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>TC0001 - BS#1 - Brain - Update the current weather dialog node</t>
-  </si>
-  <si>
     <t>The purpose of the Test Case is to successfully update the current weather dialog node with database's updated information</t>
   </si>
   <si>
@@ -92,16 +89,10 @@
     <t>Get informations from database and translate it to an object</t>
   </si>
   <si>
-    <t>After a successfullt access to database to get the information about the last current weather update, this information is translated to a not null object</t>
-  </si>
-  <si>
     <t>New output creation</t>
   </si>
   <si>
     <t xml:space="preserve">Create a new output based on the created object and the current hour. </t>
-  </si>
-  <si>
-    <t>Update de current weather node</t>
   </si>
   <si>
     <t>The new output is succeddfully inserted in the dialog node</t>
@@ -131,12 +122,6 @@
     <t>The purpose of the Test Case is to access to a non existent document and provoque an error on the operation</t>
   </si>
   <si>
-    <t>TC0002 - BS#1 - Brain - Update the current weather dialog node - Document with the information not found</t>
-  </si>
-  <si>
-    <t>TC0003 - BS#1 - Brain - Update the current weather dialog node - Network problem</t>
-  </si>
-  <si>
     <t>The purpose of the Test Case is to create a socket connection error on purpose</t>
   </si>
   <si>
@@ -150,13 +135,282 @@
   </si>
   <si>
     <t>Because of a connection problem, socket could not send a request to the database. Appears a socket error and finish unsuccessfully the operation</t>
+  </si>
+  <si>
+    <t>The purpose of the Test Case is to successfully update the history weather dialog nodes with database's updated information. The history history stands for yesterday and today's weather ultil the current hour.</t>
+  </si>
+  <si>
+    <t>Create a list with all collection's documents</t>
+  </si>
+  <si>
+    <t>After get all documents from the selected collection, should be created a list with all weather by hour information</t>
+  </si>
+  <si>
+    <t>Create an output based on each hour from the list</t>
+  </si>
+  <si>
+    <t>String sucessfully created with the selected hour's information</t>
+  </si>
+  <si>
+    <t>Update the current weather node</t>
+  </si>
+  <si>
+    <t>After a successfully access to database to get the information about the last current weather update, this information is translated to a not null object</t>
+  </si>
+  <si>
+    <t>Dialog node with the new information successfully updated</t>
+  </si>
+  <si>
+    <t>Update the dialog node for each hour</t>
+  </si>
+  <si>
+    <t>The assumptions &amp; conditions are:
+- The history weather nodes already exists
+- All inserted parameters are valid
+- There is no connection problems
+- Server problems are non existant</t>
+  </si>
+  <si>
+    <t>The purpose of the Test Case is to show what happens when update history dialog nodes with an empty documents list</t>
+  </si>
+  <si>
+    <t>Get a null documents list</t>
+  </si>
+  <si>
+    <t>Create a null list, because the collection was empty</t>
+  </si>
+  <si>
+    <t>Create an output error</t>
+  </si>
+  <si>
+    <t>After the output receive a null object to use, an error occurs</t>
+  </si>
+  <si>
+    <t>The assumptions &amp; conditions are:
+- The history weather nodes already exists
+- The information that will be used to update the nodes exists
+- All inserted parameters are valid
+- There is no connection problems
+- Server problems are non existant</t>
+  </si>
+  <si>
+    <t>TC0005 - Brain - Update the history weather dialog nodes - Empty Collection</t>
+  </si>
+  <si>
+    <t>TC0004  - Brain - Update the history weather dialog nodes</t>
+  </si>
+  <si>
+    <t>TC0003 - Brain - Update the current weather dialog node - Network problem</t>
+  </si>
+  <si>
+    <t>TC0002 - Brain - Update the current weather dialog node - Document with the information not found</t>
+  </si>
+  <si>
+    <t>TC0001 - Brain - Update the current weather dialog node</t>
+  </si>
+  <si>
+    <t>TC0006 - Database - Get the weather information and send it to the Database</t>
+  </si>
+  <si>
+    <t>Database Manipulation</t>
+  </si>
+  <si>
+    <t>Receive the response from the weather server</t>
+  </si>
+  <si>
+    <t>Create a not null with the information requested by the Application to the server (JSON file)</t>
+  </si>
+  <si>
+    <t>Transform the information into an object</t>
+  </si>
+  <si>
+    <t>Translate the received JSON to a not null object</t>
+  </si>
+  <si>
+    <t>Insert the object information to the database</t>
+  </si>
+  <si>
+    <t>Successfully insert the object to the database</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; conditions:
+- The data to create the requests is valid
+- The database information is valid
+- There is no server internal problems</t>
+  </si>
+  <si>
+    <t>TC0007 - Database - Get the weather information and send it to the Database - Invalid request</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the interaction between the Application, the weather information server and the database</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the invalid request to the weather server</t>
+  </si>
+  <si>
+    <t>After using invalid data to create the request, the response will return a Bad Request Error (400) and will create an empty string</t>
+  </si>
+  <si>
+    <t>Transform the string to an object</t>
+  </si>
+  <si>
+    <t>Will return an error by trying unsuccessfully create an object from an empty string (JSON file)</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; conditions:
+- The database information is valid
+- There is no server internal problems</t>
+  </si>
+  <si>
+    <t>TC0008 - Chat - Initial message from Bot</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to discribe what happens when the chat between the chatbot and the user starts</t>
+  </si>
+  <si>
+    <t>Get the welcome node</t>
+  </si>
+  <si>
+    <t>Process the node to get a response</t>
+  </si>
+  <si>
+    <t>Send this response to the user</t>
+  </si>
+  <si>
+    <t>After insert the data, get a not null welcome node object</t>
+  </si>
+  <si>
+    <t>Transform successfully the output from the object into a String</t>
+  </si>
+  <si>
+    <t>Return a substring of the previously built string (remove brackets)</t>
+  </si>
+  <si>
+    <t>Chat Manipulation</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; conditions:
+- The welcome node exists
+- The chat started previously</t>
+  </si>
+  <si>
+    <t>TC0009 - Chat -  Receive a question and send an answer</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the behaviour of the application when receives a question via web from  a user</t>
+  </si>
+  <si>
+    <t>Receive the question from a user</t>
+  </si>
+  <si>
+    <t>Create a valid input to bot</t>
+  </si>
+  <si>
+    <t>Send the question to bot</t>
+  </si>
+  <si>
+    <t>Successfully send a request to the watson's server and receive the response</t>
+  </si>
+  <si>
+    <t>Process the response</t>
+  </si>
+  <si>
+    <t>Get the output text from the response and send it to the user</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; Conditions:
+- The chat started previously
+- There is no internet errors in Watson's servers</t>
+  </si>
+  <si>
+    <t>TC0010 - Chat -  Receive a question and send an answer - multiple answers</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the behaviour of the application when receives a question via web from  a user and the answer has more than one answers</t>
+  </si>
+  <si>
+    <t>Get the list of responses</t>
+  </si>
+  <si>
+    <t>Create a list of all the aswers given by the bot</t>
+  </si>
+  <si>
+    <t>Send all the aswers, after iterate all the list of answers, in one string response to the user (separated by a new line character)</t>
+  </si>
+  <si>
+    <t>TC0011 - Chat -  Receive a question and send an answer - no answers</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the behaviour of the application when receives a question via web from  a user and the question is irrelevant</t>
+  </si>
+  <si>
+    <t>Send an empty string to the user. (The input is irrelevant which means that the output text from the response is empty.)</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the web page that will receive the user's input and will show the response to the user</t>
+  </si>
+  <si>
+    <t>TC0012 - GUI - Conversation - Get start message</t>
+  </si>
+  <si>
+    <t>The purpose of this Test Case is to test the web page on load</t>
+  </si>
+  <si>
+    <t>Turn on the web page</t>
+  </si>
+  <si>
+    <t>Send a request to get the bot's welcome message and tranforms this response into a chat text bubble</t>
+  </si>
+  <si>
+    <t>TC0013 - GUI - Conversation - Conversation Flow</t>
+  </si>
+  <si>
+    <t>Chatbot Web Implementation</t>
+  </si>
+  <si>
+    <t>Web page</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; Conditions:
+- There is no internet errors in Watson's servers
+- The created REST server is online</t>
+  </si>
+  <si>
+    <t>Assumptions &amp; Conditions:
+- The chat started previously
+- There is no internet errors in Watson's servers
+- The created REST server is online</t>
+  </si>
+  <si>
+    <t>Write a question to the bot</t>
+  </si>
+  <si>
+    <t>The text appears in the web page text area</t>
+  </si>
+  <si>
+    <t>Press the "send" button</t>
+  </si>
+  <si>
+    <t>Send the question to the bot</t>
+  </si>
+  <si>
+    <t>Write the question to a text bubble</t>
+  </si>
+  <si>
+    <t>Successfully create a new "div" with the input inserted</t>
+  </si>
+  <si>
+    <t>Receive the answer</t>
+  </si>
+  <si>
+    <t>After receive the response from the request, will be created a "div" with the response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +418,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +439,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,35 +459,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,376 +892,1518 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1">
+      <c r="I16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="15">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="15">
+        <v>3</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="5">
-        <v>2</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1">
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="15">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="15">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="15">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="15">
+        <v>1</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="15">
+        <v>2</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="15">
+        <v>3</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="15">
+        <v>4</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
+  <mergeCells count="104">
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="G58:G63"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="I58:I63"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="K58:K63"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="J25:J29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="K16:K20"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="B2:B7"/>
@@ -923,6 +2415,19 @@
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="K8:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
